--- a/way_to_dream.xlsx
+++ b/way_to_dream.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1500" yWindow="460" windowWidth="36900" windowHeight="23540" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7875" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Статистика" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="новая сводка" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="настройки" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="инф за лето 2022" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Статистика" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="новая сводка" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="настройки" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="инф за лето 2022" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,7 +26,7 @@
     <numFmt numFmtId="168" formatCode="#,##0\ &quot;₽&quot;"/>
     <numFmt numFmtId="169" formatCode="[$-419]d\ mmm\ yy;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -71,6 +71,13 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <i val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -100,13 +107,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -135,14 +145,23 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -333,14 +352,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -363,8 +382,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -378,7 +397,7 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -386,10 +405,10 @@
             <idx val="0"/>
             <bubble3D val="0"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -401,10 +420,10 @@
             <idx val="1"/>
             <bubble3D val="0"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="19050">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -459,16 +478,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -483,7 +502,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -492,18 +511,33 @@
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
+  <spPr>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
 </chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -530,8 +564,8 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
@@ -545,7 +579,7 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -553,10 +587,10 @@
             <idx val="0"/>
             <bubble3D val="0"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -568,10 +602,10 @@
             <idx val="1"/>
             <bubble3D val="0"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -583,10 +617,10 @@
             <idx val="2"/>
             <bubble3D val="0"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="19050">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -598,10 +632,10 @@
             <idx val="3"/>
             <bubble3D val="0"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="19050">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -613,10 +647,10 @@
             <idx val="4"/>
             <bubble3D val="0"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:ln w="19050">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -654,7 +688,7 @@
                 <formatCode>0%</formatCode>
                 <ptCount val="5"/>
                 <pt idx="0">
-                  <v>0.095154538415002</v>
+                  <v>0.09515453841500199</v>
                 </pt>
                 <pt idx="1">
                   <v>0</v>
@@ -676,7 +710,7 @@
           <idx val="1"/>
           <order val="1"/>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -684,10 +718,10 @@
             <idx val="0"/>
             <bubble3D val="0"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -699,10 +733,10 @@
             <idx val="1"/>
             <bubble3D val="0"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -714,10 +748,10 @@
             <idx val="2"/>
             <bubble3D val="0"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="19050">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -729,10 +763,10 @@
             <idx val="3"/>
             <bubble3D val="0"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="19050">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -744,10 +778,10 @@
             <idx val="4"/>
             <bubble3D val="0"/>
             <spPr>
-              <a:solidFill>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
-              <a:ln w="19050">
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="19050">
                 <a:solidFill>
                   <a:schemeClr val="lt1"/>
                 </a:solidFill>
@@ -820,16 +854,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -844,7 +878,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t>None</a:t>
+            <a:t/>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -853,11 +887,26 @@
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
+  <spPr>
+    <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
 </chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>0</col>
@@ -877,9 +926,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -904,9 +953,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -916,8 +965,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица24" displayName="Таблица24" ref="A1:G8" headerRowCount="1" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица24" displayName="Таблица24" ref="A1:G16" headerRowCount="1" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:G16"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Дата" dataDxfId="14"/>
     <tableColumn id="2" name="Выручка" dataDxfId="13"/>
@@ -1248,33 +1297,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="B1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="n"/>
-      <c r="B1" s="16" t="n"/>
+      <c r="A1" s="23" t="n"/>
+      <c r="B1" s="23" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="n"/>
-      <c r="B2" s="16" t="n"/>
+      <c r="A2" s="23" t="n"/>
+      <c r="B2" s="23" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="16" t="n"/>
-      <c r="B3" s="16" t="n"/>
+      <c r="A3" s="23" t="n"/>
+      <c r="B3" s="23" t="n"/>
     </row>
     <row r="4">
-      <c r="Q4" s="4" t="inlineStr">
+      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>Осталось выходов на работу</t>
         </is>
@@ -1288,36 +1337,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView zoomScale="194" zoomScaleNormal="194" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="194" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+      <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.90625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="9.54296875" customWidth="1" min="1" max="1"/>
-    <col width="9.453125" customWidth="1" style="16" min="2" max="2"/>
-    <col width="11.26953125" customWidth="1" style="16" min="3" max="3"/>
-    <col width="7.6328125" customWidth="1" style="16" min="4" max="4"/>
-    <col width="7.54296875" customWidth="1" min="5" max="5"/>
-    <col width="9.90625" customWidth="1" min="6" max="6"/>
-    <col width="9.453125" customWidth="1" style="16" min="9" max="10"/>
-    <col width="9.90625" customWidth="1" style="16" min="11" max="11"/>
-    <col width="9.453125" customWidth="1" style="16" min="13" max="13"/>
-    <col width="7.26953125" customWidth="1" style="16" min="14" max="14"/>
+    <col width="9.5703125" customWidth="1" min="1" max="1"/>
+    <col width="9.42578125" customWidth="1" style="23" min="2" max="2"/>
+    <col width="11.28515625" customWidth="1" style="23" min="3" max="3"/>
+    <col width="7.5703125" customWidth="1" style="23" min="4" max="4"/>
+    <col width="7.5703125" customWidth="1" min="5" max="5"/>
+    <col width="9.85546875" customWidth="1" min="6" max="6"/>
+    <col width="9.42578125" customWidth="1" style="23" min="9" max="10"/>
+    <col width="9.85546875" customWidth="1" style="23" min="11" max="11"/>
+    <col width="9.42578125" customWidth="1" style="23" min="13" max="13"/>
+    <col width="7.28515625" customWidth="1" style="23" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -1393,16 +1442,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="14" t="n">
         <v>44905</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="6" t="n">
         <v>1303.05</v>
       </c>
-      <c r="C2" s="16" t="n">
+      <c r="C2" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="11" t="n">
         <v>0.3173611111111111</v>
       </c>
       <c r="E2" s="18">
@@ -1413,41 +1462,39 @@
         <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B2*(настройки!$B$6*0.01),"")</f>
         <v/>
       </c>
-      <c r="G2" s="16" t="inlineStr">
+      <c r="G2" s="23" t="inlineStr">
         <is>
           <t>Доставка</t>
         </is>
       </c>
-      <c r="H2" s="16" t="n"/>
+      <c r="H2" s="23" t="n"/>
       <c r="J2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="14" t="n">
         <v>44912</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="23" t="n">
         <v>1938</v>
       </c>
-      <c r="C3" s="16" t="n">
+      <c r="C3" s="23" t="n">
         <v>4</v>
       </c>
       <c r="D3" s="10" t="n">
         <v>0.3701388888888889</v>
       </c>
-      <c r="E3" s="5">
-        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B3*(настройки!$B$7*0.01),"")</f>
-        <v/>
-      </c>
-      <c r="F3" s="5">
-        <f>1065.9-100</f>
-        <v/>
-      </c>
-      <c r="G3" s="16" t="inlineStr">
+      <c r="E3" s="23" t="n">
+        <v>290.7</v>
+      </c>
+      <c r="F3" s="23" t="n">
+        <v>965.9</v>
+      </c>
+      <c r="G3" s="23" t="inlineStr">
         <is>
           <t>Доставка</t>
         </is>
       </c>
-      <c r="H3" s="16" t="n"/>
+      <c r="H3" s="23" t="n"/>
       <c r="I3" s="3" t="n"/>
       <c r="J3" s="3" t="n"/>
       <c r="K3" s="3">
@@ -1484,30 +1531,27 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="n">
-        <v>44972</v>
+      <c r="A4" s="14" t="n">
+        <v>44977</v>
       </c>
       <c r="B4" t="n">
-        <v>3857348965</v>
+        <v>4774</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="9" t="n"/>
-      <c r="E4" s="16">
-        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B4*(настройки!$B$7*0.01),"")</f>
-        <v/>
-      </c>
-      <c r="F4" s="16">
-        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B4*(настройки!$B$6*0.01),"")</f>
-        <v/>
-      </c>
-      <c r="G4" s="16" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10">
+        <f>D6-D5</f>
+        <v/>
+      </c>
+      <c r="E4" s="23" t="n"/>
+      <c r="F4" s="23" t="n"/>
+      <c r="G4" s="23" t="inlineStr">
         <is>
           <t>Доставка</t>
         </is>
       </c>
-      <c r="H4" s="16" t="n"/>
+      <c r="H4" s="23" t="n"/>
       <c r="I4" s="3" t="n"/>
       <c r="J4" s="3" t="n"/>
       <c r="K4" s="3">
@@ -1544,73 +1588,102 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="n"/>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t>12:43</t>
-        </is>
-      </c>
-      <c r="E5" s="16">
-        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B5*(настройки!$B$7*0.01),"")</f>
-        <v/>
-      </c>
-      <c r="F5" s="16">
-        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B5*(настройки!$B$6*0.01),"")</f>
-        <v/>
-      </c>
-      <c r="G5" s="16" t="n"/>
-      <c r="H5" s="16" t="n"/>
+      <c r="A5" s="14" t="n">
+        <v>44977</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8383</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10">
+        <f>D7-D6</f>
+        <v/>
+      </c>
+      <c r="E5" s="23" t="n"/>
+      <c r="F5" s="23" t="n"/>
+      <c r="G5" s="23" t="inlineStr">
+        <is>
+          <t>Доставка</t>
+        </is>
+      </c>
+      <c r="H5" s="23" t="n"/>
       <c r="I5" s="3" t="n"/>
       <c r="J5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="n"/>
-      <c r="D6" s="9" t="n"/>
-      <c r="E6" s="16">
-        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B6*(настройки!$B$7*0.01),"")</f>
-        <v/>
-      </c>
-      <c r="F6" s="16">
-        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B6*(настройки!$B$6*0.01),"")</f>
-        <v/>
-      </c>
-      <c r="G6" s="16" t="n"/>
-      <c r="H6" s="16" t="n"/>
+      <c r="A6" s="14" t="n"/>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>22:21</t>
+        </is>
+      </c>
+      <c r="E6" s="23" t="n"/>
+      <c r="F6" s="23" t="n"/>
+      <c r="G6" s="23" t="n"/>
+      <c r="H6" s="23" t="n"/>
       <c r="I6" s="3" t="n"/>
       <c r="J6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="n"/>
-      <c r="D7" s="9" t="n"/>
-      <c r="E7" s="16">
+      <c r="A7" s="20" t="n"/>
+      <c r="D7" s="10" t="inlineStr">
+        <is>
+          <t>22:21</t>
+        </is>
+      </c>
+      <c r="E7" s="23">
         <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B7*(настройки!$B$7*0.01),"")</f>
         <v/>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="23">
         <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B7*(настройки!$B$6*0.01),"")</f>
         <v/>
       </c>
-      <c r="G7" s="16" t="n"/>
-      <c r="H7" s="16" t="n"/>
+      <c r="G7" s="23" t="n"/>
+      <c r="H7" s="23" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="n"/>
-      <c r="D8" s="9" t="n"/>
-      <c r="E8" s="16">
+      <c r="A8" s="20" t="n"/>
+      <c r="D8" s="10" t="n"/>
+      <c r="E8" s="23">
         <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B8*(настройки!$B$7*0.01),"")</f>
         <v/>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="23">
         <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B8*(настройки!$B$6*0.01),"")</f>
         <v/>
       </c>
-      <c r="G8" s="16" t="n"/>
+      <c r="G8" s="23" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="n"/>
+      <c r="A9" s="20" t="n"/>
+      <c r="D9" s="10" t="n"/>
+      <c r="E9" s="23">
+        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B9*(настройки!$B$7*0.01),"")</f>
+        <v/>
+      </c>
+      <c r="F9" s="23">
+        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B9*(настройки!$B$6*0.01),"")</f>
+        <v/>
+      </c>
+      <c r="G9" s="23" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="n"/>
+      <c r="A10" s="20" t="n"/>
+      <c r="B10" s="21" t="n"/>
+      <c r="C10" s="21" t="n"/>
+      <c r="D10" s="22" t="n"/>
+      <c r="E10" s="23">
+        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B10*(настройки!$B$7*0.01),"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="23">
+        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B10*(настройки!$B$6*0.01),"")</f>
+        <v/>
+      </c>
+      <c r="G10" s="23" t="n"/>
       <c r="I10" s="3" t="n"/>
       <c r="J10" s="3" t="n"/>
       <c r="K10" s="3" t="n"/>
@@ -1618,7 +1691,17 @@
       <c r="N10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="n"/>
+      <c r="A11" s="20" t="n"/>
+      <c r="D11" s="10" t="n"/>
+      <c r="E11" s="23">
+        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B11*(настройки!$B$7*0.01),"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="23">
+        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B11*(настройки!$B$6*0.01),"")</f>
+        <v/>
+      </c>
+      <c r="G11" s="23" t="n"/>
       <c r="I11" s="3" t="n"/>
       <c r="J11" s="3" t="n"/>
       <c r="K11" s="3" t="n"/>
@@ -1626,10 +1709,17 @@
       <c r="N11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="n"/>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="6" t="n"/>
-      <c r="D12" s="6" t="n"/>
+      <c r="A12" s="20" t="n"/>
+      <c r="D12" s="10" t="n"/>
+      <c r="E12" s="23">
+        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B12*(настройки!$B$7*0.01),"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="23">
+        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B12*(настройки!$B$6*0.01),"")</f>
+        <v/>
+      </c>
+      <c r="G12" s="23" t="n"/>
       <c r="I12" s="3" t="n"/>
       <c r="J12" s="3" t="n"/>
       <c r="K12" s="3" t="n"/>
@@ -1637,10 +1727,17 @@
       <c r="N12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="n"/>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
+      <c r="A13" s="20" t="n"/>
+      <c r="D13" s="10" t="n"/>
+      <c r="E13" s="23">
+        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B13*(настройки!$B$7*0.01),"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="23">
+        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B13*(настройки!$B$6*0.01),"")</f>
+        <v/>
+      </c>
+      <c r="G13" s="23" t="n"/>
       <c r="I13" s="3" t="n"/>
       <c r="J13" s="3" t="n"/>
       <c r="K13" s="3" t="n"/>
@@ -1648,7 +1745,17 @@
       <c r="N13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="n"/>
+      <c r="A14" s="20" t="n"/>
+      <c r="D14" s="10" t="n"/>
+      <c r="E14" s="23">
+        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B14*(настройки!$B$7*0.01),"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="23">
+        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B14*(настройки!$B$6*0.01),"")</f>
+        <v/>
+      </c>
+      <c r="G14" s="23" t="n"/>
       <c r="I14" s="3" t="n"/>
       <c r="J14" s="3" t="n"/>
       <c r="K14" s="3" t="n"/>
@@ -1656,30 +1763,46 @@
       <c r="N14" s="3" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="n"/>
+      <c r="A15" s="20" t="n"/>
+      <c r="D15" s="10" t="n"/>
+      <c r="E15" s="23">
+        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B15*(настройки!$B$7*0.01),"")</f>
+        <v/>
+      </c>
+      <c r="F15" s="23">
+        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B15*(настройки!$B$6*0.01),"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="23" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="n"/>
+      <c r="A16" s="20" t="n"/>
+      <c r="D16" s="10" t="n"/>
+      <c r="E16" s="23">
+        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B16*(настройки!$B$7*0.01),"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="23">
+        <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B16*(настройки!$B$6*0.01),"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="23" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="n"/>
+      <c r="A17" s="14" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="n"/>
+      <c r="A18" s="14" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="n"/>
-      <c r="I20" s="16" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="I20" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B12:D12">
+  <conditionalFormatting sqref="B10:D10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1692,7 +1815,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1705,18 +1828,18 @@
   </sheetPr>
   <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="18.54296875" customWidth="1" min="1" max="1"/>
-    <col width="11.26953125" customWidth="1" min="2" max="2"/>
-    <col width="14.6328125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="10.1796875" customWidth="1" min="6" max="8"/>
-    <col width="9.453125" customWidth="1" min="9" max="9"/>
-    <col width="8.6328125" customWidth="1" min="10" max="10"/>
+    <col width="18.5703125" customWidth="1" min="1" max="1"/>
+    <col width="11.28515625" customWidth="1" min="2" max="2"/>
+    <col width="14.5703125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="10.140625" customWidth="1" min="6" max="8"/>
+    <col width="9.42578125" customWidth="1" min="9" max="9"/>
+    <col width="8.5703125" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -1725,7 +1848,7 @@
           <t>Цель</t>
         </is>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="13">
         <f>50000</f>
         <v/>
       </c>
@@ -1734,12 +1857,12 @@
           <t>Доставка</t>
         </is>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="15">
         <f>G2/($B$2-$B$3)</f>
         <v/>
       </c>
-      <c r="G2" s="11">
-        <f>SUMIF('новая сводка'!G1:G10,"Доставка",'новая сводка'!F:F)</f>
+      <c r="G2" s="12">
+        <f>SUMIF('новая сводка'!G:G,"Доставка",'новая сводка'!F:F)</f>
         <v/>
       </c>
       <c r="I2" t="inlineStr">
@@ -1759,7 +1882,7 @@
           <t xml:space="preserve">Осталось </t>
         </is>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="13">
         <f>IF(B2-(SUM(G2:G6))&gt;0,B2-(SUM(G2:G6)),0)</f>
         <v/>
       </c>
@@ -1768,19 +1891,19 @@
           <t>Монтаж</t>
         </is>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="15">
         <f>G3/($B$2-$B$3)</f>
         <v/>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="12">
         <f>SUMIF('новая сводка'!G:G,"Монтаж",'новая сводка'!F:F)</f>
         <v/>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="15">
         <f>(B2-B3)/B2</f>
         <v/>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="15">
         <f>1-I3</f>
         <v/>
       </c>
@@ -1796,11 +1919,11 @@
           <t>Фото</t>
         </is>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="15">
         <f>G4/($B$2-$B$3)</f>
         <v/>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="12">
         <f>SUMIF('новая сводка'!G:G,"Фото",'новая сводка'!F:F)</f>
         <v/>
       </c>
@@ -1811,11 +1934,11 @@
           <t>Макдональдс</t>
         </is>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="15">
         <f>G5/($B$2-$B$3)</f>
         <v/>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="12">
         <f>SUMIF('новая сводка'!G:G,"Мак",'новая сводка'!F:F)</f>
         <v/>
       </c>
@@ -1834,11 +1957,11 @@
           <t>Нач. капитал</t>
         </is>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="15">
         <f>G6/($B$2-$B$3)</f>
         <v/>
       </c>
-      <c r="G6" s="12" t="n">
+      <c r="G6" s="13" t="n">
         <v>16000</v>
       </c>
     </row>
@@ -1858,7 +1981,7 @@
           <t>Средний день</t>
         </is>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="16">
         <f>SUM('новая сводка'!F:F)/(COUNTIF('новая сводка'!G:G,"&lt;&gt;")-1)</f>
         <v/>
       </c>
@@ -1869,7 +1992,7 @@
           <t>Ср. заказ</t>
         </is>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="16">
         <f>SUM('новая сводка'!B:B)/SUM('новая сводка'!C:C)</f>
         <v/>
       </c>
@@ -1891,7 +2014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1904,14 +2027,14 @@
       <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.90625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="19.26953125" customWidth="1" min="1" max="1"/>
-    <col width="9.453125" customWidth="1" style="16" min="2" max="3"/>
-    <col width="9.90625" customWidth="1" style="16" min="4" max="4"/>
-    <col width="14.26953125" customWidth="1" style="16" min="5" max="5"/>
-    <col width="9.453125" customWidth="1" style="16" min="6" max="7"/>
-    <col width="7.26953125" customWidth="1" style="16" min="8" max="8"/>
+    <col width="19.28515625" customWidth="1" min="1" max="1"/>
+    <col width="9.42578125" customWidth="1" style="23" min="2" max="3"/>
+    <col width="9.85546875" customWidth="1" style="23" min="4" max="4"/>
+    <col width="14.28515625" customWidth="1" style="23" min="5" max="5"/>
+    <col width="9.42578125" customWidth="1" style="23" min="6" max="7"/>
+    <col width="7.28515625" customWidth="1" style="23" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -1981,49 +2104,49 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="inlineStr">
+      <c r="A2" s="9" t="inlineStr">
         <is>
           <t>1 день</t>
         </is>
       </c>
-      <c r="B2" s="16" t="n">
+      <c r="B2" s="23" t="n">
         <v>568</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="23">
         <f>B2*(50*0.01)</f>
         <v/>
       </c>
-      <c r="D2" s="16" t="n">
+      <c r="D2" s="23" t="n">
         <v>96</v>
       </c>
-      <c r="E2" s="16" t="n">
+      <c r="E2" s="23" t="n">
         <v>284</v>
       </c>
-      <c r="F2" s="16" t="n">
+      <c r="F2" s="23" t="n">
         <v>400</v>
       </c>
       <c r="H2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
+      <c r="A3" s="9" t="inlineStr">
         <is>
           <t>2 день</t>
         </is>
       </c>
-      <c r="B3" s="16" t="n">
+      <c r="B3" s="23" t="n">
         <v>440</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="23">
         <f>B3*(50*0.01)</f>
         <v/>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="23" t="n">
         <v>240</v>
       </c>
-      <c r="E3" s="16" t="n">
+      <c r="E3" s="23" t="n">
         <v>220</v>
       </c>
-      <c r="F3" s="16" t="n">
+      <c r="F3" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="3" t="n"/>
@@ -2062,25 +2185,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="inlineStr">
+      <c r="A4" s="9" t="inlineStr">
         <is>
           <t>3 день</t>
         </is>
       </c>
-      <c r="B4" s="16" t="n">
+      <c r="B4" s="23" t="n">
         <v>1125</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="23">
         <f>B4*(50*0.01)</f>
         <v/>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="23" t="n">
         <v>431</v>
       </c>
-      <c r="E4" s="16" t="n">
+      <c r="E4" s="23" t="n">
         <v>356.5</v>
       </c>
-      <c r="F4" s="16" t="n">
+      <c r="F4" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="3" t="n"/>
@@ -2119,78 +2242,78 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="inlineStr">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>4 день</t>
         </is>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="23">
         <f>300+400+500</f>
         <v/>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="23">
         <f>B5*(50*0.01)</f>
         <v/>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="23" t="n">
         <v>826</v>
       </c>
-      <c r="E5" s="16" t="n">
+      <c r="E5" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="F5" s="16" t="n">
+      <c r="F5" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="3" t="n"/>
       <c r="H5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>5 день</t>
         </is>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="23">
         <f>650-195+345+517+579</f>
         <v/>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="23">
         <f>B6*(50*0.01)</f>
         <v/>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="23" t="n">
         <v>1196</v>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E6" s="23" t="n">
         <v>300</v>
       </c>
-      <c r="F6" s="16" t="n">
+      <c r="F6" s="23" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="3" t="n"/>
       <c r="H6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="inlineStr">
+      <c r="A7" s="9" t="inlineStr">
         <is>
           <t>6 день</t>
         </is>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="23">
         <f>750+322+400+310+290</f>
         <v/>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="23">
         <f>B7*(50*0.01)</f>
         <v/>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D7" s="23" t="n">
         <v>1423.25</v>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E7" s="23" t="n">
         <v>298.75</v>
       </c>
-      <c r="F7" s="16" t="n">
+      <c r="F7" s="23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2203,8 +2326,8 @@
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="6" t="n"/>
+      <c r="A11" s="5" t="n"/>
+      <c r="B11" s="7" t="n"/>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="3" t="n"/>
@@ -2213,8 +2336,8 @@
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n"/>
-      <c r="B12" s="7" t="n"/>
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="8" t="n"/>
       <c r="C12" s="3" t="n"/>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="3" t="n"/>
@@ -2239,9 +2362,9 @@
       <c r="H14" s="3" t="n"/>
     </row>
     <row r="20">
-      <c r="C20" s="16" t="inlineStr">
-        <is>
-          <t> </t>
+      <c r="C20" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
@@ -2259,7 +2382,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/way_to_dream.xlsx
+++ b/way_to_dream.xlsx
@@ -502,7 +502,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -878,7 +878,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU"/>
         </a:p>
@@ -1605,7 +1605,7 @@
       <c r="F5" s="23" t="n"/>
       <c r="G5" s="23" t="inlineStr">
         <is>
-          <t>Доставка</t>
+          <t>Монтаж</t>
         </is>
       </c>
       <c r="H5" s="23" t="n"/>
@@ -1616,7 +1616,7 @@
       <c r="A6" s="14" t="n"/>
       <c r="D6" s="10" t="inlineStr">
         <is>
-          <t>22:21</t>
+          <t>22:39</t>
         </is>
       </c>
       <c r="E6" s="23" t="n"/>

--- a/way_to_dream.xlsx
+++ b/way_to_dream.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\collBlock\cb_moneybot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1721A18D-FCC6-4BF3-88FA-F3F58FBA12BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD28BFF6-4C0E-4F76-B777-2FA047AE8DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="2775" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Статистика" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
     <numFmt numFmtId="168" formatCode="#,##0\ &quot;₽&quot;"/>
     <numFmt numFmtId="169" formatCode="[$-419]d\ mmm\ yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,13 +181,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -217,7 +210,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -260,9 +253,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -279,36 +269,6 @@
     <cellStyle name="Процентный" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-      <alignment horizontal="left" vertical="top"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="left" vertical="top"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top"/>
-    </dxf>
     <dxf>
       <font>
         <i/>
@@ -321,7 +281,15 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
         <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
       <alignment horizontal="left" vertical="top"/>
     </dxf>
@@ -375,6 +343,30 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="top"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="left" vertical="top"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top"/>
     </dxf>
     <dxf>
@@ -1149,34 +1141,34 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица24" displayName="Таблица24" ref="A1:G16" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:G16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Дата" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Выручка" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Кол-во зак." dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Время" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Маме" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Дата" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Выручка" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Кол-во зак." dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Время" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Маме" dataDxfId="12">
       <calculatedColumnFormula>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B2*(настройки!$B$7*0.01),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="На счет" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="На счет" dataDxfId="11">
       <calculatedColumnFormula>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B2*(настройки!$B$6*0.01),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Тип" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Тип" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица2" displayName="Таблица2" ref="A1:F7" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица2" displayName="Таблица2" ref="A1:F7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:F7" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name                      №" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Выручка" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Маме" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name                      №" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Выручка" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Маме" dataDxfId="5">
       <calculatedColumnFormula>B2*(50*0.01)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="На счет" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Оставил себе" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Штраф" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="На счет" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Оставил себе" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Штраф" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1523,12 +1515,12 @@
     <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="194" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B12" sqref="B12"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="19" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="4" customWidth="1"/>
@@ -1746,7 +1738,7 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="14"/>
       <c r="D8" s="10"/>
       <c r="E8" s="6" t="str">
         <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B8*(настройки!$B$7*0.01),"")</f>
@@ -1759,7 +1751,7 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="14"/>
       <c r="D9" s="10"/>
       <c r="E9" s="6" t="str">
         <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B9*(настройки!$B$7*0.01),"")</f>
@@ -1772,10 +1764,10 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="6" t="str">
         <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B10*(настройки!$B$7*0.01),"")</f>
         <v/>
@@ -1792,7 +1784,7 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="14"/>
       <c r="D11" s="10"/>
       <c r="E11" s="6" t="str">
         <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B11*(настройки!$B$7*0.01),"")</f>
@@ -1810,7 +1802,7 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="14"/>
       <c r="D12" s="10"/>
       <c r="E12" s="6" t="str">
         <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B12*(настройки!$B$7*0.01),"")</f>
@@ -1828,7 +1820,7 @@
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="14"/>
       <c r="D13" s="10"/>
       <c r="E13" s="6" t="str">
         <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B13*(настройки!$B$7*0.01),"")</f>
@@ -1846,7 +1838,7 @@
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="14"/>
       <c r="D14" s="10"/>
       <c r="E14" s="6" t="str">
         <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B14*(настройки!$B$7*0.01),"")</f>
@@ -1864,7 +1856,7 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="14"/>
       <c r="D15" s="10"/>
       <c r="E15" s="6" t="str">
         <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B15*(настройки!$B$7*0.01),"")</f>
@@ -1877,7 +1869,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="14"/>
       <c r="D16" s="10"/>
       <c r="E16" s="6" t="str">
         <f>IF(Таблица24[[#This Row],[Выручка]]&lt;&gt;"",B16*(настройки!$B$7*0.01),"")</f>
